--- a/input/team1.xlsx
+++ b/input/team1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFDB14C-D8F4-4E73-A9E0-CCC347564ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC12DBA-3178-4BEF-9F83-6D4CBA8E2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="655">
   <si>
     <t>key</t>
   </si>
@@ -2308,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,6 +2319,61 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/input/team1.xlsx
+++ b/input/team1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC12DBA-3178-4BEF-9F83-6D4CBA8E2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02928228-256F-40CA-8180-ECDF42342DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="658">
   <si>
     <t>key</t>
   </si>
@@ -1991,6 +1994,15 @@
   </si>
   <si>
     <t>Team1</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sikandar Raza</t>
   </si>
 </sst>
 </file>
@@ -2026,8 +2038,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2043,6 +2059,3337 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Kumar Kandasamy Eswaran" refreshedDate="45016.374923495372" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="653" xr:uid="{7E02C564-7503-423D-892D-EBA72A73233D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:A654" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="key" numFmtId="0">
+      <sharedItems count="653">
+        <s v="A Ashish Reddy"/>
+        <s v="A Badoni"/>
+        <s v="A Chandila"/>
+        <s v="A Chopra"/>
+        <s v="A Choudhary"/>
+        <s v="A Dananjaya"/>
+        <s v="A Flintoff"/>
+        <s v="A Kumble"/>
+        <s v="A Manohar"/>
+        <s v="A Mishra"/>
+        <s v="A Mithun"/>
+        <s v="A Mukund"/>
+        <s v="A Nehra"/>
+        <s v="A Nel"/>
+        <s v="A Nortje"/>
+        <s v="A Singh"/>
+        <s v="A Symonds"/>
+        <s v="A Tomar"/>
+        <s v="A Uniyal"/>
+        <s v="A Zampa"/>
+        <s v="AA Bilakhia"/>
+        <s v="AA Chavan"/>
+        <s v="AA Jhunjhunwala"/>
+        <s v="AA Kazi"/>
+        <s v="AA Noffke"/>
+        <s v="AB Agarkar"/>
+        <s v="AB Barath"/>
+        <s v="AB de Villiers"/>
+        <s v="AB Dinda"/>
+        <s v="AB McDonald"/>
+        <s v="Abdul Samad"/>
+        <s v="Abdur Razzak"/>
+        <s v="Abhishek Sharma"/>
+        <s v="AC Blizzard"/>
+        <s v="AC Gilchrist"/>
+        <s v="AC Thomas"/>
+        <s v="AC Voges"/>
+        <s v="AD Hales"/>
+        <s v="AD Mascarenhas"/>
+        <s v="AD Mathews"/>
+        <s v="AD Nath"/>
+        <s v="AD Russell"/>
+        <s v="AF Milne"/>
+        <s v="AG Murtaza"/>
+        <s v="AG Paunikar"/>
+        <s v="AJ Finch"/>
+        <s v="AJ Turner"/>
+        <s v="AJ Tye"/>
+        <s v="AK Markram"/>
+        <s v="Akash Deep"/>
+        <s v="Akash Singh"/>
+        <s v="AL Menaria"/>
+        <s v="AM Nayar"/>
+        <s v="AM Rahane"/>
+        <s v="AM Salvi"/>
+        <s v="Aman Hakim Khan"/>
+        <s v="AN Ahmed"/>
+        <s v="AN Ghosh"/>
+        <s v="Anand Rajan"/>
+        <s v="Anirudh Singh"/>
+        <s v="Ankit Sharma"/>
+        <s v="Ankit Soni"/>
+        <s v="Anmolpreet Singh"/>
+        <s v="Anuj Rawat"/>
+        <s v="Anureet Singh"/>
+        <s v="AP Dole"/>
+        <s v="AP Majumdar"/>
+        <s v="AP Tare"/>
+        <s v="AR Bawne"/>
+        <s v="AR Patel"/>
+        <s v="Arshdeep Singh"/>
+        <s v="AS Joseph"/>
+        <s v="AS Rajpoot"/>
+        <s v="AS Raut"/>
+        <s v="AS Roy"/>
+        <s v="AS Yadav"/>
+        <s v="AT Carey"/>
+        <s v="AT Rayudu"/>
+        <s v="AU Rashid"/>
+        <s v="AUK Pathan"/>
+        <s v="Avesh Khan"/>
+        <s v="Azhar Mahmood"/>
+        <s v="B Akhil"/>
+        <s v="B Chipli"/>
+        <s v="B Geeves"/>
+        <s v="B Indrajith"/>
+        <s v="B Kumar"/>
+        <s v="B Laughlin"/>
+        <s v="B Lee"/>
+        <s v="B Sai Sudharsan"/>
+        <s v="B Stanlake"/>
+        <s v="B Sumanth"/>
+        <s v="BA Bhatt"/>
+        <s v="BA Stokes"/>
+        <s v="Basil Thampi"/>
+        <s v="BAW Mendis"/>
+        <s v="BB McCullum"/>
+        <s v="BB Samantray"/>
+        <s v="BB Sran"/>
+        <s v="BCJ Cutting"/>
+        <s v="BE Hendricks"/>
+        <s v="Bipul Sharma"/>
+        <s v="BJ Haddin"/>
+        <s v="BJ Hodge"/>
+        <s v="BJ Rohrer"/>
+        <s v="BMAJ Mendis"/>
+        <s v="BR Dunk"/>
+        <s v="BW Hilfenhaus"/>
+        <s v="C de Grandhomme"/>
+        <s v="C Ganapathy"/>
+        <s v="C Madan"/>
+        <s v="C Munro"/>
+        <s v="C Nanda"/>
+        <s v="C Sakariya"/>
+        <s v="CA Ingram"/>
+        <s v="CA Lynn"/>
+        <s v="CA Pujara"/>
+        <s v="CH Gayle"/>
+        <s v="CH Morris"/>
+        <s v="CJ Anderson"/>
+        <s v="CJ Dala"/>
+        <s v="CJ Ferguson"/>
+        <s v="CJ Green"/>
+        <s v="CJ Jordan"/>
+        <s v="CJ McKay"/>
+        <s v="CK Kapugedera"/>
+        <s v="CK Langeveldt"/>
+        <s v="CL White"/>
+        <s v="CM Gautam"/>
+        <s v="CR Brathwaite"/>
+        <s v="CR Woakes"/>
+        <s v="CRD Fernando"/>
+        <s v="CV Varun"/>
+        <s v="D Brevis"/>
+        <s v="D du Preez"/>
+        <s v="D Kalyankrishna"/>
+        <s v="D Padikkal"/>
+        <s v="D Pretorius"/>
+        <s v="D Salunkhe"/>
+        <s v="D Wiese"/>
+        <s v="DA Miller"/>
+        <s v="DA Warner"/>
+        <s v="DAJ Bracewell"/>
+        <s v="DB Das"/>
+        <s v="DB Ravi Teja"/>
+        <s v="DE Bollinger"/>
+        <s v="DG Nalkande"/>
+        <s v="DH Yagnik"/>
+        <s v="DJ Bravo"/>
+        <s v="DJ Harris"/>
+        <s v="DJ Hooda"/>
+        <s v="DJ Hussey"/>
+        <s v="DJ Jacobs"/>
+        <s v="DJ Malan"/>
+        <s v="DJ Mitchell"/>
+        <s v="DJ Muthuswami"/>
+        <s v="DJ Thornely"/>
+        <s v="DJ Willey"/>
+        <s v="DJG Sammy"/>
+        <s v="DJM Short"/>
+        <s v="DL Chahar"/>
+        <s v="DL Vettori"/>
+        <s v="DM Bravo"/>
+        <s v="DNT Zoysa"/>
+        <s v="DP Conway"/>
+        <s v="DP Nannes"/>
+        <s v="DP Vijaykumar"/>
+        <s v="DPMD Jayawardene"/>
+        <s v="DR Martyn"/>
+        <s v="DR Sams"/>
+        <s v="DR Shorey"/>
+        <s v="DR Smith"/>
+        <s v="DS Kulkarni"/>
+        <s v="DS Lehmann"/>
+        <s v="DT Christian"/>
+        <s v="DT Patil"/>
+        <s v="DW Steyn"/>
+        <s v="E Lewis"/>
+        <s v="EJG Morgan"/>
+        <s v="ER Dwivedi"/>
+        <s v="F Behardien"/>
+        <s v="F du Plessis"/>
+        <s v="FA Allen"/>
+        <s v="Fazalhaq Farooqi"/>
+        <s v="FH Edwards"/>
+        <s v="FY Fazal"/>
+        <s v="G Gambhir"/>
+        <s v="Gagandeep Singh"/>
+        <s v="GB Hogg"/>
+        <s v="GC Smith"/>
+        <s v="GC Viljoen"/>
+        <s v="GD McGrath"/>
+        <s v="GD Phillips"/>
+        <s v="GH Vihari"/>
+        <s v="GHS Garton"/>
+        <s v="GJ Bailey"/>
+        <s v="GJ Maxwell"/>
+        <s v="GR Napier"/>
+        <s v="GS Sandhu"/>
+        <s v="Gurkeerat Singh"/>
+        <s v="H Das"/>
+        <s v="H Klaasen"/>
+        <s v="Harbhajan Singh"/>
+        <s v="Harmeet Singh"/>
+        <s v="Harmeet Singh (2)"/>
+        <s v="Harpreet Brar"/>
+        <s v="Harpreet Singh"/>
+        <s v="Harshit Rana"/>
+        <s v="HE van der Dussen"/>
+        <s v="HF Gurney"/>
+        <s v="HH Gibbs"/>
+        <s v="HH Pandya"/>
+        <s v="HM Amla"/>
+        <s v="HR Shokeen"/>
+        <s v="HV Patel"/>
+        <s v="I Malhotra"/>
+        <s v="I Sharma"/>
+        <s v="I Udana"/>
+        <s v="IC Pandey"/>
+        <s v="IC Porel"/>
+        <s v="IK Pathan"/>
+        <s v="Imran Tahir"/>
+        <s v="Iqbal Abdulla"/>
+        <s v="IR Jaggi"/>
+        <s v="IS Sodhi"/>
+        <s v="Ishan Kishan"/>
+        <s v="J Arunkumar"/>
+        <s v="J Botha"/>
+        <s v="J Suchith"/>
+        <s v="J Syed Mohammad"/>
+        <s v="J Theron"/>
+        <s v="J Yadav"/>
+        <s v="JA Morkel"/>
+        <s v="JA Richardson"/>
+        <s v="Jalaj S Saxena"/>
+        <s v="Jaskaran Singh"/>
+        <s v="JC Archer"/>
+        <s v="JC Buttler"/>
+        <s v="JD Ryder"/>
+        <s v="JD Unadkat"/>
+        <s v="JDP Oram"/>
+        <s v="JDS Neesham"/>
+        <s v="JE Taylor"/>
+        <s v="JEC Franklin"/>
+        <s v="JH Kallis"/>
+        <s v="JJ Bumrah"/>
+        <s v="JJ Roy"/>
+        <s v="JJ van der Wath"/>
+        <s v="JL Denly"/>
+        <s v="JL Pattinson"/>
+        <s v="JM Bairstow"/>
+        <s v="JM Kemp"/>
+        <s v="JM Sharma"/>
+        <s v="JO Holder"/>
+        <s v="Joginder Sharma"/>
+        <s v="JP Behrendorff"/>
+        <s v="JP Duminy"/>
+        <s v="JP Faulkner"/>
+        <s v="JPR Scantlebury-Searles"/>
+        <s v="JR Hazlewood"/>
+        <s v="JR Hopes"/>
+        <s v="JR Philippe"/>
+        <s v="JW Hastings"/>
+        <s v="K Goel"/>
+        <s v="K Gowtham"/>
+        <s v="K Kartikeya"/>
+        <s v="K Khejroliya"/>
+        <s v="K Rabada"/>
+        <s v="K Santokie"/>
+        <s v="K Upadhyay"/>
+        <s v="K Yadav"/>
+        <s v="KA Jamieson"/>
+        <s v="KA Pollard"/>
+        <s v="KAJ Roach"/>
+        <s v="Kamran Akmal"/>
+        <s v="Kamran Khan"/>
+        <s v="Karanveer Singh"/>
+        <s v="Kartik Tyagi"/>
+        <s v="KB Arun Karthik"/>
+        <s v="KC Cariappa"/>
+        <s v="KC Sangakkara"/>
+        <s v="KD Karthik"/>
+        <s v="KH Pandya"/>
+        <s v="KJ Abbott"/>
+        <s v="KK Ahmed"/>
+        <s v="KK Cooper"/>
+        <s v="KK Nair"/>
+        <s v="KL Nagarkoti"/>
+        <s v="KL Rahul"/>
+        <s v="KM Asif"/>
+        <s v="KM Jadhav"/>
+        <s v="KMA Paul"/>
+        <s v="KMDN Kulasekara"/>
+        <s v="KP Appanna"/>
+        <s v="KP Pietersen"/>
+        <s v="KR Sen"/>
+        <s v="KS Bharat"/>
+        <s v="KS Sharma"/>
+        <s v="KS Williamson"/>
+        <s v="Kuldeep Yadav"/>
+        <s v="KV Sharma"/>
+        <s v="KW Richardson"/>
+        <s v="L Ablish"/>
+        <s v="L Balaji"/>
+        <s v="L Ngidi"/>
+        <s v="L Ronchi"/>
+        <s v="LA Carseldine"/>
+        <s v="LA Pomersbach"/>
+        <s v="Lalit Yadav"/>
+        <s v="LE Plunkett"/>
+        <s v="LH Ferguson"/>
+        <s v="LI Meriwala"/>
+        <s v="LJ Wright"/>
+        <s v="LMP Simmons"/>
+        <s v="LPC Silva"/>
+        <s v="LR Shukla"/>
+        <s v="LRPL Taylor"/>
+        <s v="LS Livingstone"/>
+        <s v="M Ashwin"/>
+        <s v="M de Lange"/>
+        <s v="M Jansen"/>
+        <s v="M Kaif"/>
+        <s v="M Kartik"/>
+        <s v="M Klinger"/>
+        <s v="M Manhas"/>
+        <s v="M Markande"/>
+        <s v="M Morkel"/>
+        <s v="M Muralitharan"/>
+        <s v="M Ntini"/>
+        <s v="M Pathirana"/>
+        <s v="M Prasidh Krishna"/>
+        <s v="M Rawat"/>
+        <s v="M Shahrukh Khan"/>
+        <s v="M Theekshana"/>
+        <s v="M Vijay"/>
+        <s v="M Vohra"/>
+        <s v="MA Agarwal"/>
+        <s v="MA Khote"/>
+        <s v="MA Starc"/>
+        <s v="MA Wood"/>
+        <s v="Mandeep Singh"/>
+        <s v="Mashrafe Mortaza"/>
+        <s v="MB Parmar"/>
+        <s v="MC Henriques"/>
+        <s v="MC Juneja"/>
+        <s v="MD Mishra"/>
+        <s v="MDKJ Perera"/>
+        <s v="MEK Hussey"/>
+        <s v="MF Maharoof"/>
+        <s v="MG Johnson"/>
+        <s v="MG Neser"/>
+        <s v="Misbah-ul-Haq"/>
+        <s v="MJ Clarke"/>
+        <s v="MJ Guptill"/>
+        <s v="MJ Henry"/>
+        <s v="MJ Lumb"/>
+        <s v="MJ McClenaghan"/>
+        <s v="MJ Santner"/>
+        <s v="MK Lomror"/>
+        <s v="MK Pandey"/>
+        <s v="MK Tiwary"/>
+        <s v="ML Hayden"/>
+        <s v="MM Ali"/>
+        <s v="MM Patel"/>
+        <s v="MM Sharma"/>
+        <s v="MN Samuels"/>
+        <s v="MN van Wyk"/>
+        <s v="Mohammad Ashraful"/>
+        <s v="Mohammad Asif"/>
+        <s v="Mohammad Hafeez"/>
+        <s v="Mohammad Nabi"/>
+        <s v="Mohammed Shami"/>
+        <s v="Mohammed Siraj"/>
+        <s v="Mohsin Khan (2)"/>
+        <s v="Monu Kumar"/>
+        <s v="MP Stoinis"/>
+        <s v="MR Marsh"/>
+        <s v="MS Bisla"/>
+        <s v="MS Dhoni"/>
+        <s v="MS Gony"/>
+        <s v="MS Wade"/>
+        <s v="Mujeeb Ur Rahman"/>
+        <s v="Mukesh Choudhary"/>
+        <s v="Mustafizur Rahman"/>
+        <s v="MV Boucher"/>
+        <s v="N Jagadeesan"/>
+        <s v="N Pooran"/>
+        <s v="N Rana"/>
+        <s v="N Saini"/>
+        <s v="NA Saini"/>
+        <s v="NB Singh"/>
+        <s v="ND Doshi"/>
+        <s v="Niraj Patel"/>
+        <s v="NJ Maddinson"/>
+        <s v="NJ Rimmington"/>
+        <s v="NL McCullum"/>
+        <s v="NLTC Perera"/>
+        <s v="NM Coulter-Nile"/>
+        <s v="NS Naik"/>
+        <s v="NT Ellis"/>
+        <s v="NV Ojha"/>
+        <s v="O Thomas"/>
+        <s v="OA Shah"/>
+        <s v="OC McCoy"/>
+        <s v="OF Smith"/>
+        <s v="P Amarnath"/>
+        <s v="P Awana"/>
+        <s v="P Chopra"/>
+        <s v="P Dogra"/>
+        <s v="P Dubey"/>
+        <s v="P Kumar"/>
+        <s v="P Negi"/>
+        <s v="P Parameswaran"/>
+        <s v="P Prasanth"/>
+        <s v="P Ray Barman"/>
+        <s v="P Sahu"/>
+        <s v="P Simran Singh"/>
+        <s v="P Suyal"/>
+        <s v="PA Patel"/>
+        <s v="PA Reddy"/>
+        <s v="Pankaj Singh"/>
+        <s v="Parvez Rasool"/>
+        <s v="PBB Rajapaksa"/>
+        <s v="PC Valthaty"/>
+        <s v="PD Collingwood"/>
+        <s v="PH Solanki"/>
+        <s v="PJ Cummins"/>
+        <s v="PJ Sangwan"/>
+        <s v="PK Garg"/>
+        <s v="PM Sarvesh Kumar"/>
+        <s v="PN Mankad"/>
+        <s v="PP Chawla"/>
+        <s v="PP Ojha"/>
+        <s v="PP Shaw"/>
+        <s v="PR Shah"/>
+        <s v="PSP Handscomb"/>
+        <s v="PV Tambe"/>
+        <s v="PVD Chameera"/>
+        <s v="PWH de Silva"/>
+        <s v="Q de Kock"/>
+        <s v="R Ashwin"/>
+        <s v="R Bhatia"/>
+        <s v="R Bishnoi"/>
+        <s v="R Dhawan"/>
+        <s v="R Dravid"/>
+        <s v="R McLaren"/>
+        <s v="R Ninan"/>
+        <s v="R Parag"/>
+        <s v="R Powell"/>
+        <s v="R Rampaul"/>
+        <s v="R Sai Kishore"/>
+        <s v="R Sanjay Yadav"/>
+        <s v="R Sathish"/>
+        <s v="R Sharma"/>
+        <s v="R Shepherd"/>
+        <s v="R Shukla"/>
+        <s v="R Tewatia"/>
+        <s v="R Vinay Kumar"/>
+        <s v="RA Bawa"/>
+        <s v="RA Jadeja"/>
+        <s v="RA Shaikh"/>
+        <s v="RA Tripathi"/>
+        <s v="Ramandeep Singh"/>
+        <s v="Rashid Khan"/>
+        <s v="Rasikh Salam"/>
+        <s v="Ravi Bishnoi"/>
+        <s v="RD Chahar"/>
+        <s v="RD Gaikwad"/>
+        <s v="RE Levi"/>
+        <s v="RE van der Merwe"/>
+        <s v="RG More"/>
+        <s v="RG Sharma"/>
+        <s v="RJ Harris"/>
+        <s v="RJ Peterson"/>
+        <s v="RJ Quiney"/>
+        <s v="RK Bhui"/>
+        <s v="RK Singh"/>
+        <s v="RM Patidar"/>
+        <s v="RN ten Doeschate"/>
+        <s v="RP Meredith"/>
+        <s v="RP Singh"/>
+        <s v="RR Bhatkal"/>
+        <s v="RR Bose"/>
+        <s v="RR Pant"/>
+        <s v="RR Powar"/>
+        <s v="RR Raje"/>
+        <s v="RR Rossouw"/>
+        <s v="RR Sarwan"/>
+        <s v="RS Bopara"/>
+        <s v="RS Gavaskar"/>
+        <s v="RS Sodhi"/>
+        <s v="RT Ponting"/>
+        <s v="RV Gomez"/>
+        <s v="RV Patel"/>
+        <s v="RV Uthappa"/>
+        <s v="RW Price"/>
+        <s v="S Anirudha"/>
+        <s v="S Aravind"/>
+        <s v="S Badree"/>
+        <s v="S Badrinath"/>
+        <s v="S Chanderpaul"/>
+        <s v="S Dhawan"/>
+        <s v="S Dube"/>
+        <s v="S Gopal"/>
+        <s v="S Kaul"/>
+        <s v="S Kaushik"/>
+        <s v="S Ladda"/>
+        <s v="S Lamichhane"/>
+        <s v="S Midhun"/>
+        <s v="S Nadeem"/>
+        <s v="S Narwal"/>
+        <s v="S Rana"/>
+        <s v="S Randiv"/>
+        <s v="S Sandeep Warrier"/>
+        <s v="S Sohal"/>
+        <s v="S Sreesanth"/>
+        <s v="S Sriram"/>
+        <s v="S Tyagi"/>
+        <s v="S Vidyut"/>
+        <s v="SA Abbott"/>
+        <s v="SA Asnodkar"/>
+        <s v="SA Yadav"/>
+        <s v="Sachin Baby"/>
+        <s v="Salman Butt"/>
+        <s v="Sandeep Sharma"/>
+        <s v="SB Bangar"/>
+        <s v="SB Jakati"/>
+        <s v="SB Joshi"/>
+        <s v="SB Styris"/>
+        <s v="SB Wagh"/>
+        <s v="SC Ganguly"/>
+        <s v="SC Kuggeleijn"/>
+        <s v="SD Chitnis"/>
+        <s v="SD Lad"/>
+        <s v="SE Bond"/>
+        <s v="SE Marsh"/>
+        <s v="SE Rutherford"/>
+        <s v="Shahbaz Ahmed"/>
+        <s v="Shahid Afridi"/>
+        <s v="Shakib Al Hasan"/>
+        <s v="Shashank Singh"/>
+        <s v="Shivam Mavi"/>
+        <s v="Shivam Sharma"/>
+        <s v="Shoaib Ahmed"/>
+        <s v="Shoaib Akhtar"/>
+        <s v="Shoaib Malik"/>
+        <s v="Shubman Gill"/>
+        <s v="Simarjeet Singh"/>
+        <s v="SJ Srivastava"/>
+        <s v="SK Raina"/>
+        <s v="SK Trivedi"/>
+        <s v="SK Warne"/>
+        <s v="SL Malinga"/>
+        <s v="SM Boland"/>
+        <s v="SM Curran"/>
+        <s v="SM Harwood"/>
+        <s v="SM Katich"/>
+        <s v="SM Pollock"/>
+        <s v="SMSM Senanayake"/>
+        <s v="SN Khan"/>
+        <s v="SN Thakur"/>
+        <s v="SO Hetmyer"/>
+        <s v="Sohail Tanvir"/>
+        <s v="SP Fleming"/>
+        <s v="SP Goswami"/>
+        <s v="SP Jackson"/>
+        <s v="SP Narine"/>
+        <s v="SPD Smith"/>
+        <s v="SR Tendulkar"/>
+        <s v="SR Watson"/>
+        <s v="SS Agarwal"/>
+        <s v="SS Cottrell"/>
+        <s v="SS Iyer"/>
+        <s v="SS Mundhe"/>
+        <s v="SS Prabhudessai"/>
+        <s v="SS Sarkar"/>
+        <s v="SS Shaikh"/>
+        <s v="SS Tiwary"/>
+        <s v="ST Jayasuriya"/>
+        <s v="STR Binny"/>
+        <s v="Sunny Gupta"/>
+        <s v="Sunny Singh"/>
+        <s v="SV Samson"/>
+        <s v="SW Billings"/>
+        <s v="SW Tait"/>
+        <s v="Swapnil Singh"/>
+        <s v="T Banton"/>
+        <s v="T Henderson"/>
+        <s v="T Kohli"/>
+        <s v="T Natarajan"/>
+        <s v="T Shamsi"/>
+        <s v="T Stubbs"/>
+        <s v="T Taibu"/>
+        <s v="T Thushara"/>
+        <s v="TA Boult"/>
+        <s v="TD Paine"/>
+        <s v="Tejas Baroka"/>
+        <s v="TG Southee"/>
+        <s v="TH David"/>
+        <s v="Tilak Varma"/>
+        <s v="TK Curran"/>
+        <s v="TL Seifert"/>
+        <s v="TL Suman"/>
+        <s v="TM Dilshan"/>
+        <s v="TM Head"/>
+        <s v="TM Srivastava"/>
+        <s v="TP Sudhindra"/>
+        <s v="TR Birt"/>
+        <s v="TS Mills"/>
+        <s v="TU Deshpande"/>
+        <s v="U Kaul"/>
+        <s v="UA Birla"/>
+        <s v="UBT Chand"/>
+        <s v="Umar Gul"/>
+        <s v="Umran Malik"/>
+        <s v="UT Khawaja"/>
+        <s v="UT Yadav"/>
+        <s v="V Kohli"/>
+        <s v="V Pratap Singh"/>
+        <s v="V Sehwag"/>
+        <s v="V Shankar"/>
+        <s v="VG Arora"/>
+        <s v="VH Zol"/>
+        <s v="Virat Singh"/>
+        <s v="Vishnu Vinod"/>
+        <s v="VR Aaron"/>
+        <s v="VR Iyer"/>
+        <s v="VRV Singh"/>
+        <s v="VS Malik"/>
+        <s v="VS Yeligati"/>
+        <s v="VVS Laxman"/>
+        <s v="VY Mahesh"/>
+        <s v="W Jaffer"/>
+        <s v="WA Mota"/>
+        <s v="Washington Sundar"/>
+        <s v="WD Parnell"/>
+        <s v="WP Saha"/>
+        <s v="WPUJC Vaas"/>
+        <s v="X Thalaivan Sargunam"/>
+        <s v="Y Gnaneswara Rao"/>
+        <s v="Y Nagar"/>
+        <s v="Y Prithvi Raj"/>
+        <s v="Y Venugopal Rao"/>
+        <s v="YA Abdulla"/>
+        <s v="Yash Dayal"/>
+        <s v="Yashpal Singh"/>
+        <s v="YBK Jaiswal"/>
+        <s v="YK Pathan"/>
+        <s v="Younis Khan"/>
+        <s v="YS Chahal"/>
+        <s v="Yuvraj Singh"/>
+        <s v="YV Takawale"/>
+        <s v="Z Khan"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="653">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="104"/>
+  </r>
+  <r>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="106"/>
+  </r>
+  <r>
+    <x v="107"/>
+  </r>
+  <r>
+    <x v="108"/>
+  </r>
+  <r>
+    <x v="109"/>
+  </r>
+  <r>
+    <x v="110"/>
+  </r>
+  <r>
+    <x v="111"/>
+  </r>
+  <r>
+    <x v="112"/>
+  </r>
+  <r>
+    <x v="113"/>
+  </r>
+  <r>
+    <x v="114"/>
+  </r>
+  <r>
+    <x v="115"/>
+  </r>
+  <r>
+    <x v="116"/>
+  </r>
+  <r>
+    <x v="117"/>
+  </r>
+  <r>
+    <x v="118"/>
+  </r>
+  <r>
+    <x v="119"/>
+  </r>
+  <r>
+    <x v="120"/>
+  </r>
+  <r>
+    <x v="121"/>
+  </r>
+  <r>
+    <x v="122"/>
+  </r>
+  <r>
+    <x v="123"/>
+  </r>
+  <r>
+    <x v="124"/>
+  </r>
+  <r>
+    <x v="125"/>
+  </r>
+  <r>
+    <x v="126"/>
+  </r>
+  <r>
+    <x v="127"/>
+  </r>
+  <r>
+    <x v="128"/>
+  </r>
+  <r>
+    <x v="129"/>
+  </r>
+  <r>
+    <x v="130"/>
+  </r>
+  <r>
+    <x v="131"/>
+  </r>
+  <r>
+    <x v="132"/>
+  </r>
+  <r>
+    <x v="133"/>
+  </r>
+  <r>
+    <x v="134"/>
+  </r>
+  <r>
+    <x v="135"/>
+  </r>
+  <r>
+    <x v="136"/>
+  </r>
+  <r>
+    <x v="137"/>
+  </r>
+  <r>
+    <x v="138"/>
+  </r>
+  <r>
+    <x v="139"/>
+  </r>
+  <r>
+    <x v="140"/>
+  </r>
+  <r>
+    <x v="141"/>
+  </r>
+  <r>
+    <x v="142"/>
+  </r>
+  <r>
+    <x v="143"/>
+  </r>
+  <r>
+    <x v="144"/>
+  </r>
+  <r>
+    <x v="145"/>
+  </r>
+  <r>
+    <x v="146"/>
+  </r>
+  <r>
+    <x v="147"/>
+  </r>
+  <r>
+    <x v="148"/>
+  </r>
+  <r>
+    <x v="149"/>
+  </r>
+  <r>
+    <x v="150"/>
+  </r>
+  <r>
+    <x v="151"/>
+  </r>
+  <r>
+    <x v="152"/>
+  </r>
+  <r>
+    <x v="153"/>
+  </r>
+  <r>
+    <x v="154"/>
+  </r>
+  <r>
+    <x v="155"/>
+  </r>
+  <r>
+    <x v="156"/>
+  </r>
+  <r>
+    <x v="157"/>
+  </r>
+  <r>
+    <x v="158"/>
+  </r>
+  <r>
+    <x v="159"/>
+  </r>
+  <r>
+    <x v="160"/>
+  </r>
+  <r>
+    <x v="161"/>
+  </r>
+  <r>
+    <x v="162"/>
+  </r>
+  <r>
+    <x v="163"/>
+  </r>
+  <r>
+    <x v="164"/>
+  </r>
+  <r>
+    <x v="165"/>
+  </r>
+  <r>
+    <x v="166"/>
+  </r>
+  <r>
+    <x v="167"/>
+  </r>
+  <r>
+    <x v="168"/>
+  </r>
+  <r>
+    <x v="169"/>
+  </r>
+  <r>
+    <x v="170"/>
+  </r>
+  <r>
+    <x v="171"/>
+  </r>
+  <r>
+    <x v="172"/>
+  </r>
+  <r>
+    <x v="173"/>
+  </r>
+  <r>
+    <x v="174"/>
+  </r>
+  <r>
+    <x v="175"/>
+  </r>
+  <r>
+    <x v="176"/>
+  </r>
+  <r>
+    <x v="177"/>
+  </r>
+  <r>
+    <x v="178"/>
+  </r>
+  <r>
+    <x v="179"/>
+  </r>
+  <r>
+    <x v="180"/>
+  </r>
+  <r>
+    <x v="181"/>
+  </r>
+  <r>
+    <x v="182"/>
+  </r>
+  <r>
+    <x v="183"/>
+  </r>
+  <r>
+    <x v="184"/>
+  </r>
+  <r>
+    <x v="185"/>
+  </r>
+  <r>
+    <x v="186"/>
+  </r>
+  <r>
+    <x v="187"/>
+  </r>
+  <r>
+    <x v="188"/>
+  </r>
+  <r>
+    <x v="189"/>
+  </r>
+  <r>
+    <x v="190"/>
+  </r>
+  <r>
+    <x v="191"/>
+  </r>
+  <r>
+    <x v="192"/>
+  </r>
+  <r>
+    <x v="193"/>
+  </r>
+  <r>
+    <x v="194"/>
+  </r>
+  <r>
+    <x v="195"/>
+  </r>
+  <r>
+    <x v="196"/>
+  </r>
+  <r>
+    <x v="197"/>
+  </r>
+  <r>
+    <x v="198"/>
+  </r>
+  <r>
+    <x v="199"/>
+  </r>
+  <r>
+    <x v="200"/>
+  </r>
+  <r>
+    <x v="201"/>
+  </r>
+  <r>
+    <x v="202"/>
+  </r>
+  <r>
+    <x v="203"/>
+  </r>
+  <r>
+    <x v="204"/>
+  </r>
+  <r>
+    <x v="205"/>
+  </r>
+  <r>
+    <x v="206"/>
+  </r>
+  <r>
+    <x v="207"/>
+  </r>
+  <r>
+    <x v="208"/>
+  </r>
+  <r>
+    <x v="209"/>
+  </r>
+  <r>
+    <x v="210"/>
+  </r>
+  <r>
+    <x v="211"/>
+  </r>
+  <r>
+    <x v="212"/>
+  </r>
+  <r>
+    <x v="213"/>
+  </r>
+  <r>
+    <x v="214"/>
+  </r>
+  <r>
+    <x v="215"/>
+  </r>
+  <r>
+    <x v="216"/>
+  </r>
+  <r>
+    <x v="217"/>
+  </r>
+  <r>
+    <x v="218"/>
+  </r>
+  <r>
+    <x v="219"/>
+  </r>
+  <r>
+    <x v="220"/>
+  </r>
+  <r>
+    <x v="221"/>
+  </r>
+  <r>
+    <x v="222"/>
+  </r>
+  <r>
+    <x v="223"/>
+  </r>
+  <r>
+    <x v="224"/>
+  </r>
+  <r>
+    <x v="225"/>
+  </r>
+  <r>
+    <x v="226"/>
+  </r>
+  <r>
+    <x v="227"/>
+  </r>
+  <r>
+    <x v="228"/>
+  </r>
+  <r>
+    <x v="229"/>
+  </r>
+  <r>
+    <x v="230"/>
+  </r>
+  <r>
+    <x v="231"/>
+  </r>
+  <r>
+    <x v="232"/>
+  </r>
+  <r>
+    <x v="233"/>
+  </r>
+  <r>
+    <x v="234"/>
+  </r>
+  <r>
+    <x v="235"/>
+  </r>
+  <r>
+    <x v="236"/>
+  </r>
+  <r>
+    <x v="237"/>
+  </r>
+  <r>
+    <x v="238"/>
+  </r>
+  <r>
+    <x v="239"/>
+  </r>
+  <r>
+    <x v="240"/>
+  </r>
+  <r>
+    <x v="241"/>
+  </r>
+  <r>
+    <x v="242"/>
+  </r>
+  <r>
+    <x v="243"/>
+  </r>
+  <r>
+    <x v="244"/>
+  </r>
+  <r>
+    <x v="245"/>
+  </r>
+  <r>
+    <x v="246"/>
+  </r>
+  <r>
+    <x v="247"/>
+  </r>
+  <r>
+    <x v="248"/>
+  </r>
+  <r>
+    <x v="249"/>
+  </r>
+  <r>
+    <x v="250"/>
+  </r>
+  <r>
+    <x v="251"/>
+  </r>
+  <r>
+    <x v="252"/>
+  </r>
+  <r>
+    <x v="253"/>
+  </r>
+  <r>
+    <x v="254"/>
+  </r>
+  <r>
+    <x v="255"/>
+  </r>
+  <r>
+    <x v="256"/>
+  </r>
+  <r>
+    <x v="257"/>
+  </r>
+  <r>
+    <x v="258"/>
+  </r>
+  <r>
+    <x v="259"/>
+  </r>
+  <r>
+    <x v="260"/>
+  </r>
+  <r>
+    <x v="261"/>
+  </r>
+  <r>
+    <x v="262"/>
+  </r>
+  <r>
+    <x v="263"/>
+  </r>
+  <r>
+    <x v="264"/>
+  </r>
+  <r>
+    <x v="265"/>
+  </r>
+  <r>
+    <x v="266"/>
+  </r>
+  <r>
+    <x v="267"/>
+  </r>
+  <r>
+    <x v="268"/>
+  </r>
+  <r>
+    <x v="269"/>
+  </r>
+  <r>
+    <x v="270"/>
+  </r>
+  <r>
+    <x v="271"/>
+  </r>
+  <r>
+    <x v="272"/>
+  </r>
+  <r>
+    <x v="273"/>
+  </r>
+  <r>
+    <x v="274"/>
+  </r>
+  <r>
+    <x v="275"/>
+  </r>
+  <r>
+    <x v="276"/>
+  </r>
+  <r>
+    <x v="277"/>
+  </r>
+  <r>
+    <x v="278"/>
+  </r>
+  <r>
+    <x v="279"/>
+  </r>
+  <r>
+    <x v="280"/>
+  </r>
+  <r>
+    <x v="281"/>
+  </r>
+  <r>
+    <x v="282"/>
+  </r>
+  <r>
+    <x v="283"/>
+  </r>
+  <r>
+    <x v="284"/>
+  </r>
+  <r>
+    <x v="285"/>
+  </r>
+  <r>
+    <x v="286"/>
+  </r>
+  <r>
+    <x v="287"/>
+  </r>
+  <r>
+    <x v="288"/>
+  </r>
+  <r>
+    <x v="289"/>
+  </r>
+  <r>
+    <x v="290"/>
+  </r>
+  <r>
+    <x v="291"/>
+  </r>
+  <r>
+    <x v="292"/>
+  </r>
+  <r>
+    <x v="293"/>
+  </r>
+  <r>
+    <x v="294"/>
+  </r>
+  <r>
+    <x v="295"/>
+  </r>
+  <r>
+    <x v="296"/>
+  </r>
+  <r>
+    <x v="297"/>
+  </r>
+  <r>
+    <x v="298"/>
+  </r>
+  <r>
+    <x v="299"/>
+  </r>
+  <r>
+    <x v="300"/>
+  </r>
+  <r>
+    <x v="301"/>
+  </r>
+  <r>
+    <x v="302"/>
+  </r>
+  <r>
+    <x v="303"/>
+  </r>
+  <r>
+    <x v="304"/>
+  </r>
+  <r>
+    <x v="305"/>
+  </r>
+  <r>
+    <x v="306"/>
+  </r>
+  <r>
+    <x v="307"/>
+  </r>
+  <r>
+    <x v="308"/>
+  </r>
+  <r>
+    <x v="309"/>
+  </r>
+  <r>
+    <x v="310"/>
+  </r>
+  <r>
+    <x v="311"/>
+  </r>
+  <r>
+    <x v="312"/>
+  </r>
+  <r>
+    <x v="313"/>
+  </r>
+  <r>
+    <x v="314"/>
+  </r>
+  <r>
+    <x v="315"/>
+  </r>
+  <r>
+    <x v="316"/>
+  </r>
+  <r>
+    <x v="317"/>
+  </r>
+  <r>
+    <x v="318"/>
+  </r>
+  <r>
+    <x v="319"/>
+  </r>
+  <r>
+    <x v="320"/>
+  </r>
+  <r>
+    <x v="321"/>
+  </r>
+  <r>
+    <x v="322"/>
+  </r>
+  <r>
+    <x v="323"/>
+  </r>
+  <r>
+    <x v="324"/>
+  </r>
+  <r>
+    <x v="325"/>
+  </r>
+  <r>
+    <x v="326"/>
+  </r>
+  <r>
+    <x v="327"/>
+  </r>
+  <r>
+    <x v="328"/>
+  </r>
+  <r>
+    <x v="329"/>
+  </r>
+  <r>
+    <x v="330"/>
+  </r>
+  <r>
+    <x v="331"/>
+  </r>
+  <r>
+    <x v="332"/>
+  </r>
+  <r>
+    <x v="333"/>
+  </r>
+  <r>
+    <x v="334"/>
+  </r>
+  <r>
+    <x v="335"/>
+  </r>
+  <r>
+    <x v="336"/>
+  </r>
+  <r>
+    <x v="337"/>
+  </r>
+  <r>
+    <x v="338"/>
+  </r>
+  <r>
+    <x v="339"/>
+  </r>
+  <r>
+    <x v="340"/>
+  </r>
+  <r>
+    <x v="341"/>
+  </r>
+  <r>
+    <x v="342"/>
+  </r>
+  <r>
+    <x v="343"/>
+  </r>
+  <r>
+    <x v="344"/>
+  </r>
+  <r>
+    <x v="345"/>
+  </r>
+  <r>
+    <x v="346"/>
+  </r>
+  <r>
+    <x v="347"/>
+  </r>
+  <r>
+    <x v="348"/>
+  </r>
+  <r>
+    <x v="349"/>
+  </r>
+  <r>
+    <x v="350"/>
+  </r>
+  <r>
+    <x v="351"/>
+  </r>
+  <r>
+    <x v="352"/>
+  </r>
+  <r>
+    <x v="353"/>
+  </r>
+  <r>
+    <x v="354"/>
+  </r>
+  <r>
+    <x v="355"/>
+  </r>
+  <r>
+    <x v="356"/>
+  </r>
+  <r>
+    <x v="357"/>
+  </r>
+  <r>
+    <x v="358"/>
+  </r>
+  <r>
+    <x v="359"/>
+  </r>
+  <r>
+    <x v="360"/>
+  </r>
+  <r>
+    <x v="361"/>
+  </r>
+  <r>
+    <x v="362"/>
+  </r>
+  <r>
+    <x v="363"/>
+  </r>
+  <r>
+    <x v="364"/>
+  </r>
+  <r>
+    <x v="365"/>
+  </r>
+  <r>
+    <x v="366"/>
+  </r>
+  <r>
+    <x v="367"/>
+  </r>
+  <r>
+    <x v="368"/>
+  </r>
+  <r>
+    <x v="369"/>
+  </r>
+  <r>
+    <x v="370"/>
+  </r>
+  <r>
+    <x v="371"/>
+  </r>
+  <r>
+    <x v="372"/>
+  </r>
+  <r>
+    <x v="373"/>
+  </r>
+  <r>
+    <x v="374"/>
+  </r>
+  <r>
+    <x v="375"/>
+  </r>
+  <r>
+    <x v="376"/>
+  </r>
+  <r>
+    <x v="377"/>
+  </r>
+  <r>
+    <x v="378"/>
+  </r>
+  <r>
+    <x v="379"/>
+  </r>
+  <r>
+    <x v="380"/>
+  </r>
+  <r>
+    <x v="381"/>
+  </r>
+  <r>
+    <x v="382"/>
+  </r>
+  <r>
+    <x v="383"/>
+  </r>
+  <r>
+    <x v="384"/>
+  </r>
+  <r>
+    <x v="385"/>
+  </r>
+  <r>
+    <x v="386"/>
+  </r>
+  <r>
+    <x v="387"/>
+  </r>
+  <r>
+    <x v="388"/>
+  </r>
+  <r>
+    <x v="389"/>
+  </r>
+  <r>
+    <x v="390"/>
+  </r>
+  <r>
+    <x v="391"/>
+  </r>
+  <r>
+    <x v="392"/>
+  </r>
+  <r>
+    <x v="393"/>
+  </r>
+  <r>
+    <x v="394"/>
+  </r>
+  <r>
+    <x v="395"/>
+  </r>
+  <r>
+    <x v="396"/>
+  </r>
+  <r>
+    <x v="397"/>
+  </r>
+  <r>
+    <x v="398"/>
+  </r>
+  <r>
+    <x v="399"/>
+  </r>
+  <r>
+    <x v="400"/>
+  </r>
+  <r>
+    <x v="401"/>
+  </r>
+  <r>
+    <x v="402"/>
+  </r>
+  <r>
+    <x v="403"/>
+  </r>
+  <r>
+    <x v="404"/>
+  </r>
+  <r>
+    <x v="405"/>
+  </r>
+  <r>
+    <x v="406"/>
+  </r>
+  <r>
+    <x v="407"/>
+  </r>
+  <r>
+    <x v="408"/>
+  </r>
+  <r>
+    <x v="409"/>
+  </r>
+  <r>
+    <x v="410"/>
+  </r>
+  <r>
+    <x v="411"/>
+  </r>
+  <r>
+    <x v="412"/>
+  </r>
+  <r>
+    <x v="413"/>
+  </r>
+  <r>
+    <x v="414"/>
+  </r>
+  <r>
+    <x v="415"/>
+  </r>
+  <r>
+    <x v="416"/>
+  </r>
+  <r>
+    <x v="417"/>
+  </r>
+  <r>
+    <x v="418"/>
+  </r>
+  <r>
+    <x v="419"/>
+  </r>
+  <r>
+    <x v="420"/>
+  </r>
+  <r>
+    <x v="421"/>
+  </r>
+  <r>
+    <x v="422"/>
+  </r>
+  <r>
+    <x v="423"/>
+  </r>
+  <r>
+    <x v="424"/>
+  </r>
+  <r>
+    <x v="425"/>
+  </r>
+  <r>
+    <x v="426"/>
+  </r>
+  <r>
+    <x v="427"/>
+  </r>
+  <r>
+    <x v="428"/>
+  </r>
+  <r>
+    <x v="429"/>
+  </r>
+  <r>
+    <x v="430"/>
+  </r>
+  <r>
+    <x v="431"/>
+  </r>
+  <r>
+    <x v="432"/>
+  </r>
+  <r>
+    <x v="433"/>
+  </r>
+  <r>
+    <x v="434"/>
+  </r>
+  <r>
+    <x v="435"/>
+  </r>
+  <r>
+    <x v="436"/>
+  </r>
+  <r>
+    <x v="437"/>
+  </r>
+  <r>
+    <x v="438"/>
+  </r>
+  <r>
+    <x v="439"/>
+  </r>
+  <r>
+    <x v="440"/>
+  </r>
+  <r>
+    <x v="441"/>
+  </r>
+  <r>
+    <x v="442"/>
+  </r>
+  <r>
+    <x v="443"/>
+  </r>
+  <r>
+    <x v="444"/>
+  </r>
+  <r>
+    <x v="445"/>
+  </r>
+  <r>
+    <x v="446"/>
+  </r>
+  <r>
+    <x v="447"/>
+  </r>
+  <r>
+    <x v="448"/>
+  </r>
+  <r>
+    <x v="449"/>
+  </r>
+  <r>
+    <x v="450"/>
+  </r>
+  <r>
+    <x v="451"/>
+  </r>
+  <r>
+    <x v="452"/>
+  </r>
+  <r>
+    <x v="453"/>
+  </r>
+  <r>
+    <x v="454"/>
+  </r>
+  <r>
+    <x v="455"/>
+  </r>
+  <r>
+    <x v="456"/>
+  </r>
+  <r>
+    <x v="457"/>
+  </r>
+  <r>
+    <x v="458"/>
+  </r>
+  <r>
+    <x v="459"/>
+  </r>
+  <r>
+    <x v="460"/>
+  </r>
+  <r>
+    <x v="461"/>
+  </r>
+  <r>
+    <x v="462"/>
+  </r>
+  <r>
+    <x v="463"/>
+  </r>
+  <r>
+    <x v="464"/>
+  </r>
+  <r>
+    <x v="465"/>
+  </r>
+  <r>
+    <x v="466"/>
+  </r>
+  <r>
+    <x v="467"/>
+  </r>
+  <r>
+    <x v="468"/>
+  </r>
+  <r>
+    <x v="469"/>
+  </r>
+  <r>
+    <x v="470"/>
+  </r>
+  <r>
+    <x v="471"/>
+  </r>
+  <r>
+    <x v="472"/>
+  </r>
+  <r>
+    <x v="473"/>
+  </r>
+  <r>
+    <x v="474"/>
+  </r>
+  <r>
+    <x v="475"/>
+  </r>
+  <r>
+    <x v="476"/>
+  </r>
+  <r>
+    <x v="477"/>
+  </r>
+  <r>
+    <x v="478"/>
+  </r>
+  <r>
+    <x v="479"/>
+  </r>
+  <r>
+    <x v="480"/>
+  </r>
+  <r>
+    <x v="481"/>
+  </r>
+  <r>
+    <x v="482"/>
+  </r>
+  <r>
+    <x v="483"/>
+  </r>
+  <r>
+    <x v="484"/>
+  </r>
+  <r>
+    <x v="485"/>
+  </r>
+  <r>
+    <x v="486"/>
+  </r>
+  <r>
+    <x v="487"/>
+  </r>
+  <r>
+    <x v="488"/>
+  </r>
+  <r>
+    <x v="489"/>
+  </r>
+  <r>
+    <x v="490"/>
+  </r>
+  <r>
+    <x v="491"/>
+  </r>
+  <r>
+    <x v="492"/>
+  </r>
+  <r>
+    <x v="493"/>
+  </r>
+  <r>
+    <x v="494"/>
+  </r>
+  <r>
+    <x v="495"/>
+  </r>
+  <r>
+    <x v="496"/>
+  </r>
+  <r>
+    <x v="497"/>
+  </r>
+  <r>
+    <x v="498"/>
+  </r>
+  <r>
+    <x v="499"/>
+  </r>
+  <r>
+    <x v="500"/>
+  </r>
+  <r>
+    <x v="501"/>
+  </r>
+  <r>
+    <x v="502"/>
+  </r>
+  <r>
+    <x v="503"/>
+  </r>
+  <r>
+    <x v="504"/>
+  </r>
+  <r>
+    <x v="505"/>
+  </r>
+  <r>
+    <x v="506"/>
+  </r>
+  <r>
+    <x v="507"/>
+  </r>
+  <r>
+    <x v="508"/>
+  </r>
+  <r>
+    <x v="509"/>
+  </r>
+  <r>
+    <x v="510"/>
+  </r>
+  <r>
+    <x v="511"/>
+  </r>
+  <r>
+    <x v="512"/>
+  </r>
+  <r>
+    <x v="513"/>
+  </r>
+  <r>
+    <x v="514"/>
+  </r>
+  <r>
+    <x v="515"/>
+  </r>
+  <r>
+    <x v="516"/>
+  </r>
+  <r>
+    <x v="517"/>
+  </r>
+  <r>
+    <x v="518"/>
+  </r>
+  <r>
+    <x v="519"/>
+  </r>
+  <r>
+    <x v="520"/>
+  </r>
+  <r>
+    <x v="521"/>
+  </r>
+  <r>
+    <x v="522"/>
+  </r>
+  <r>
+    <x v="523"/>
+  </r>
+  <r>
+    <x v="524"/>
+  </r>
+  <r>
+    <x v="525"/>
+  </r>
+  <r>
+    <x v="526"/>
+  </r>
+  <r>
+    <x v="527"/>
+  </r>
+  <r>
+    <x v="528"/>
+  </r>
+  <r>
+    <x v="529"/>
+  </r>
+  <r>
+    <x v="530"/>
+  </r>
+  <r>
+    <x v="531"/>
+  </r>
+  <r>
+    <x v="532"/>
+  </r>
+  <r>
+    <x v="533"/>
+  </r>
+  <r>
+    <x v="534"/>
+  </r>
+  <r>
+    <x v="535"/>
+  </r>
+  <r>
+    <x v="536"/>
+  </r>
+  <r>
+    <x v="537"/>
+  </r>
+  <r>
+    <x v="538"/>
+  </r>
+  <r>
+    <x v="539"/>
+  </r>
+  <r>
+    <x v="540"/>
+  </r>
+  <r>
+    <x v="541"/>
+  </r>
+  <r>
+    <x v="542"/>
+  </r>
+  <r>
+    <x v="543"/>
+  </r>
+  <r>
+    <x v="544"/>
+  </r>
+  <r>
+    <x v="545"/>
+  </r>
+  <r>
+    <x v="546"/>
+  </r>
+  <r>
+    <x v="547"/>
+  </r>
+  <r>
+    <x v="548"/>
+  </r>
+  <r>
+    <x v="549"/>
+  </r>
+  <r>
+    <x v="550"/>
+  </r>
+  <r>
+    <x v="551"/>
+  </r>
+  <r>
+    <x v="552"/>
+  </r>
+  <r>
+    <x v="553"/>
+  </r>
+  <r>
+    <x v="554"/>
+  </r>
+  <r>
+    <x v="555"/>
+  </r>
+  <r>
+    <x v="556"/>
+  </r>
+  <r>
+    <x v="557"/>
+  </r>
+  <r>
+    <x v="558"/>
+  </r>
+  <r>
+    <x v="559"/>
+  </r>
+  <r>
+    <x v="560"/>
+  </r>
+  <r>
+    <x v="561"/>
+  </r>
+  <r>
+    <x v="562"/>
+  </r>
+  <r>
+    <x v="563"/>
+  </r>
+  <r>
+    <x v="564"/>
+  </r>
+  <r>
+    <x v="565"/>
+  </r>
+  <r>
+    <x v="566"/>
+  </r>
+  <r>
+    <x v="567"/>
+  </r>
+  <r>
+    <x v="568"/>
+  </r>
+  <r>
+    <x v="569"/>
+  </r>
+  <r>
+    <x v="570"/>
+  </r>
+  <r>
+    <x v="571"/>
+  </r>
+  <r>
+    <x v="572"/>
+  </r>
+  <r>
+    <x v="573"/>
+  </r>
+  <r>
+    <x v="574"/>
+  </r>
+  <r>
+    <x v="575"/>
+  </r>
+  <r>
+    <x v="576"/>
+  </r>
+  <r>
+    <x v="577"/>
+  </r>
+  <r>
+    <x v="578"/>
+  </r>
+  <r>
+    <x v="579"/>
+  </r>
+  <r>
+    <x v="580"/>
+  </r>
+  <r>
+    <x v="581"/>
+  </r>
+  <r>
+    <x v="582"/>
+  </r>
+  <r>
+    <x v="583"/>
+  </r>
+  <r>
+    <x v="584"/>
+  </r>
+  <r>
+    <x v="585"/>
+  </r>
+  <r>
+    <x v="586"/>
+  </r>
+  <r>
+    <x v="587"/>
+  </r>
+  <r>
+    <x v="588"/>
+  </r>
+  <r>
+    <x v="589"/>
+  </r>
+  <r>
+    <x v="590"/>
+  </r>
+  <r>
+    <x v="591"/>
+  </r>
+  <r>
+    <x v="592"/>
+  </r>
+  <r>
+    <x v="593"/>
+  </r>
+  <r>
+    <x v="594"/>
+  </r>
+  <r>
+    <x v="595"/>
+  </r>
+  <r>
+    <x v="596"/>
+  </r>
+  <r>
+    <x v="597"/>
+  </r>
+  <r>
+    <x v="598"/>
+  </r>
+  <r>
+    <x v="599"/>
+  </r>
+  <r>
+    <x v="600"/>
+  </r>
+  <r>
+    <x v="601"/>
+  </r>
+  <r>
+    <x v="602"/>
+  </r>
+  <r>
+    <x v="603"/>
+  </r>
+  <r>
+    <x v="604"/>
+  </r>
+  <r>
+    <x v="605"/>
+  </r>
+  <r>
+    <x v="606"/>
+  </r>
+  <r>
+    <x v="607"/>
+  </r>
+  <r>
+    <x v="608"/>
+  </r>
+  <r>
+    <x v="609"/>
+  </r>
+  <r>
+    <x v="610"/>
+  </r>
+  <r>
+    <x v="611"/>
+  </r>
+  <r>
+    <x v="612"/>
+  </r>
+  <r>
+    <x v="613"/>
+  </r>
+  <r>
+    <x v="614"/>
+  </r>
+  <r>
+    <x v="615"/>
+  </r>
+  <r>
+    <x v="616"/>
+  </r>
+  <r>
+    <x v="617"/>
+  </r>
+  <r>
+    <x v="618"/>
+  </r>
+  <r>
+    <x v="619"/>
+  </r>
+  <r>
+    <x v="620"/>
+  </r>
+  <r>
+    <x v="621"/>
+  </r>
+  <r>
+    <x v="622"/>
+  </r>
+  <r>
+    <x v="623"/>
+  </r>
+  <r>
+    <x v="624"/>
+  </r>
+  <r>
+    <x v="625"/>
+  </r>
+  <r>
+    <x v="626"/>
+  </r>
+  <r>
+    <x v="627"/>
+  </r>
+  <r>
+    <x v="628"/>
+  </r>
+  <r>
+    <x v="629"/>
+  </r>
+  <r>
+    <x v="630"/>
+  </r>
+  <r>
+    <x v="631"/>
+  </r>
+  <r>
+    <x v="632"/>
+  </r>
+  <r>
+    <x v="633"/>
+  </r>
+  <r>
+    <x v="634"/>
+  </r>
+  <r>
+    <x v="635"/>
+  </r>
+  <r>
+    <x v="636"/>
+  </r>
+  <r>
+    <x v="637"/>
+  </r>
+  <r>
+    <x v="638"/>
+  </r>
+  <r>
+    <x v="639"/>
+  </r>
+  <r>
+    <x v="640"/>
+  </r>
+  <r>
+    <x v="641"/>
+  </r>
+  <r>
+    <x v="642"/>
+  </r>
+  <r>
+    <x v="643"/>
+  </r>
+  <r>
+    <x v="644"/>
+  </r>
+  <r>
+    <x v="645"/>
+  </r>
+  <r>
+    <x v="646"/>
+  </r>
+  <r>
+    <x v="647"/>
+  </r>
+  <r>
+    <x v="648"/>
+  </r>
+  <r>
+    <x v="649"/>
+  </r>
+  <r>
+    <x v="650"/>
+  </r>
+  <r>
+    <x v="651"/>
+  </r>
+  <r>
+    <x v="652"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD0B9F24-F6A6-443E-B798-DFA3201660F2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G2:G6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="654">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="23"/>
+        <item h="1" x="24"/>
+        <item h="1" x="25"/>
+        <item h="1" x="26"/>
+        <item h="1" x="27"/>
+        <item h="1" x="28"/>
+        <item h="1" x="29"/>
+        <item h="1" x="30"/>
+        <item h="1" x="31"/>
+        <item h="1" x="32"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item h="1" x="41"/>
+        <item h="1" x="42"/>
+        <item h="1" x="43"/>
+        <item h="1" x="44"/>
+        <item h="1" x="45"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item h="1" x="59"/>
+        <item h="1" x="60"/>
+        <item h="1" x="61"/>
+        <item h="1" x="62"/>
+        <item h="1" x="63"/>
+        <item h="1" x="64"/>
+        <item h="1" x="65"/>
+        <item h="1" x="66"/>
+        <item h="1" x="67"/>
+        <item h="1" x="68"/>
+        <item h="1" x="69"/>
+        <item h="1" x="70"/>
+        <item h="1" x="71"/>
+        <item h="1" x="72"/>
+        <item h="1" x="73"/>
+        <item h="1" x="74"/>
+        <item h="1" x="75"/>
+        <item h="1" x="76"/>
+        <item h="1" x="77"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="80"/>
+        <item h="1" x="81"/>
+        <item h="1" x="82"/>
+        <item h="1" x="83"/>
+        <item h="1" x="84"/>
+        <item h="1" x="85"/>
+        <item h="1" x="86"/>
+        <item h="1" x="87"/>
+        <item h="1" x="88"/>
+        <item h="1" x="89"/>
+        <item h="1" x="90"/>
+        <item h="1" x="91"/>
+        <item h="1" x="92"/>
+        <item h="1" x="93"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="96"/>
+        <item h="1" x="97"/>
+        <item h="1" x="98"/>
+        <item h="1" x="99"/>
+        <item h="1" x="100"/>
+        <item h="1" x="101"/>
+        <item h="1" x="102"/>
+        <item h="1" x="103"/>
+        <item h="1" x="104"/>
+        <item h="1" x="105"/>
+        <item h="1" x="106"/>
+        <item h="1" x="107"/>
+        <item h="1" x="108"/>
+        <item h="1" x="109"/>
+        <item h="1" x="110"/>
+        <item h="1" x="111"/>
+        <item h="1" x="112"/>
+        <item h="1" x="113"/>
+        <item h="1" x="114"/>
+        <item h="1" x="115"/>
+        <item h="1" x="116"/>
+        <item h="1" x="117"/>
+        <item h="1" x="118"/>
+        <item h="1" x="119"/>
+        <item h="1" x="120"/>
+        <item h="1" x="121"/>
+        <item h="1" x="122"/>
+        <item h="1" x="123"/>
+        <item h="1" x="124"/>
+        <item h="1" x="125"/>
+        <item h="1" x="126"/>
+        <item h="1" x="127"/>
+        <item h="1" x="128"/>
+        <item h="1" x="129"/>
+        <item h="1" x="130"/>
+        <item h="1" x="131"/>
+        <item h="1" x="132"/>
+        <item h="1" x="133"/>
+        <item h="1" x="134"/>
+        <item h="1" x="135"/>
+        <item h="1" x="136"/>
+        <item h="1" x="137"/>
+        <item h="1" x="138"/>
+        <item h="1" x="139"/>
+        <item h="1" x="140"/>
+        <item h="1" x="141"/>
+        <item h="1" x="142"/>
+        <item h="1" x="143"/>
+        <item h="1" x="144"/>
+        <item h="1" x="145"/>
+        <item h="1" x="146"/>
+        <item h="1" x="147"/>
+        <item h="1" x="148"/>
+        <item h="1" x="149"/>
+        <item h="1" x="150"/>
+        <item h="1" x="151"/>
+        <item h="1" x="152"/>
+        <item h="1" x="153"/>
+        <item h="1" x="154"/>
+        <item h="1" x="155"/>
+        <item h="1" x="156"/>
+        <item h="1" x="157"/>
+        <item h="1" x="158"/>
+        <item h="1" x="159"/>
+        <item x="160"/>
+        <item h="1" x="161"/>
+        <item h="1" x="162"/>
+        <item h="1" x="163"/>
+        <item h="1" x="164"/>
+        <item h="1" x="165"/>
+        <item h="1" x="166"/>
+        <item h="1" x="167"/>
+        <item h="1" x="168"/>
+        <item h="1" x="169"/>
+        <item h="1" x="170"/>
+        <item h="1" x="171"/>
+        <item h="1" x="172"/>
+        <item h="1" x="173"/>
+        <item h="1" x="174"/>
+        <item h="1" x="175"/>
+        <item h="1" x="176"/>
+        <item h="1" x="177"/>
+        <item h="1" x="178"/>
+        <item h="1" x="179"/>
+        <item h="1" x="180"/>
+        <item h="1" x="181"/>
+        <item h="1" x="182"/>
+        <item h="1" x="183"/>
+        <item h="1" x="184"/>
+        <item h="1" x="185"/>
+        <item h="1" x="186"/>
+        <item h="1" x="187"/>
+        <item h="1" x="188"/>
+        <item h="1" x="189"/>
+        <item h="1" x="190"/>
+        <item h="1" x="191"/>
+        <item h="1" x="192"/>
+        <item h="1" x="193"/>
+        <item h="1" x="194"/>
+        <item h="1" x="195"/>
+        <item h="1" x="196"/>
+        <item h="1" x="197"/>
+        <item h="1" x="198"/>
+        <item h="1" x="199"/>
+        <item h="1" x="200"/>
+        <item h="1" x="201"/>
+        <item h="1" x="202"/>
+        <item h="1" x="203"/>
+        <item h="1" x="204"/>
+        <item h="1" x="205"/>
+        <item h="1" x="206"/>
+        <item h="1" x="207"/>
+        <item h="1" x="208"/>
+        <item h="1" x="209"/>
+        <item h="1" x="210"/>
+        <item h="1" x="211"/>
+        <item h="1" x="212"/>
+        <item h="1" x="213"/>
+        <item h="1" x="214"/>
+        <item h="1" x="215"/>
+        <item h="1" x="216"/>
+        <item h="1" x="217"/>
+        <item h="1" x="218"/>
+        <item h="1" x="219"/>
+        <item h="1" x="220"/>
+        <item h="1" x="221"/>
+        <item h="1" x="222"/>
+        <item h="1" x="223"/>
+        <item h="1" x="224"/>
+        <item h="1" x="225"/>
+        <item h="1" x="226"/>
+        <item h="1" x="227"/>
+        <item h="1" x="228"/>
+        <item h="1" x="229"/>
+        <item h="1" x="230"/>
+        <item h="1" x="231"/>
+        <item h="1" x="232"/>
+        <item h="1" x="233"/>
+        <item h="1" x="234"/>
+        <item h="1" x="235"/>
+        <item h="1" x="236"/>
+        <item h="1" x="237"/>
+        <item h="1" x="238"/>
+        <item h="1" x="239"/>
+        <item h="1" x="240"/>
+        <item h="1" x="241"/>
+        <item h="1" x="242"/>
+        <item h="1" x="243"/>
+        <item h="1" x="244"/>
+        <item h="1" x="245"/>
+        <item h="1" x="246"/>
+        <item h="1" x="247"/>
+        <item h="1" x="248"/>
+        <item h="1" x="249"/>
+        <item h="1" x="250"/>
+        <item h="1" x="251"/>
+        <item h="1" x="252"/>
+        <item h="1" x="253"/>
+        <item h="1" x="254"/>
+        <item h="1" x="255"/>
+        <item h="1" x="256"/>
+        <item h="1" x="257"/>
+        <item h="1" x="258"/>
+        <item h="1" x="259"/>
+        <item h="1" x="260"/>
+        <item h="1" x="261"/>
+        <item h="1" x="262"/>
+        <item h="1" x="263"/>
+        <item h="1" x="264"/>
+        <item h="1" x="265"/>
+        <item h="1" x="266"/>
+        <item h="1" x="267"/>
+        <item h="1" x="268"/>
+        <item h="1" x="269"/>
+        <item h="1" x="270"/>
+        <item h="1" x="271"/>
+        <item h="1" x="272"/>
+        <item h="1" x="273"/>
+        <item h="1" x="274"/>
+        <item h="1" x="275"/>
+        <item h="1" x="276"/>
+        <item h="1" x="277"/>
+        <item h="1" x="278"/>
+        <item h="1" x="279"/>
+        <item h="1" x="280"/>
+        <item h="1" x="281"/>
+        <item h="1" x="282"/>
+        <item h="1" x="283"/>
+        <item h="1" x="284"/>
+        <item h="1" x="285"/>
+        <item h="1" x="286"/>
+        <item h="1" x="287"/>
+        <item h="1" x="288"/>
+        <item h="1" x="289"/>
+        <item h="1" x="290"/>
+        <item h="1" x="291"/>
+        <item h="1" x="292"/>
+        <item h="1" x="293"/>
+        <item h="1" x="294"/>
+        <item h="1" x="295"/>
+        <item h="1" x="296"/>
+        <item h="1" x="297"/>
+        <item h="1" x="298"/>
+        <item h="1" x="299"/>
+        <item h="1" x="300"/>
+        <item h="1" x="301"/>
+        <item h="1" x="302"/>
+        <item h="1" x="303"/>
+        <item h="1" x="304"/>
+        <item h="1" x="305"/>
+        <item h="1" x="306"/>
+        <item h="1" x="307"/>
+        <item h="1" x="308"/>
+        <item h="1" x="309"/>
+        <item h="1" x="310"/>
+        <item h="1" x="311"/>
+        <item h="1" x="312"/>
+        <item h="1" x="313"/>
+        <item h="1" x="314"/>
+        <item h="1" x="315"/>
+        <item h="1" x="316"/>
+        <item h="1" x="317"/>
+        <item h="1" x="318"/>
+        <item h="1" x="319"/>
+        <item h="1" x="320"/>
+        <item h="1" x="321"/>
+        <item h="1" x="322"/>
+        <item h="1" x="323"/>
+        <item h="1" x="324"/>
+        <item h="1" x="325"/>
+        <item h="1" x="326"/>
+        <item h="1" x="327"/>
+        <item h="1" x="328"/>
+        <item h="1" x="329"/>
+        <item h="1" x="330"/>
+        <item h="1" x="331"/>
+        <item h="1" x="332"/>
+        <item h="1" x="333"/>
+        <item h="1" x="334"/>
+        <item h="1" x="335"/>
+        <item h="1" x="336"/>
+        <item h="1" x="337"/>
+        <item h="1" x="338"/>
+        <item h="1" x="339"/>
+        <item h="1" x="340"/>
+        <item h="1" x="341"/>
+        <item h="1" x="342"/>
+        <item h="1" x="343"/>
+        <item h="1" x="344"/>
+        <item h="1" x="345"/>
+        <item h="1" x="346"/>
+        <item h="1" x="347"/>
+        <item h="1" x="348"/>
+        <item h="1" x="349"/>
+        <item h="1" x="350"/>
+        <item h="1" x="351"/>
+        <item h="1" x="352"/>
+        <item h="1" x="353"/>
+        <item h="1" x="354"/>
+        <item h="1" x="355"/>
+        <item h="1" x="356"/>
+        <item h="1" x="357"/>
+        <item h="1" x="358"/>
+        <item h="1" x="359"/>
+        <item h="1" x="360"/>
+        <item h="1" x="361"/>
+        <item h="1" x="362"/>
+        <item h="1" x="363"/>
+        <item h="1" x="364"/>
+        <item h="1" x="365"/>
+        <item h="1" x="366"/>
+        <item h="1" x="367"/>
+        <item h="1" x="368"/>
+        <item h="1" x="369"/>
+        <item h="1" x="370"/>
+        <item h="1" x="371"/>
+        <item h="1" x="372"/>
+        <item h="1" x="373"/>
+        <item h="1" x="374"/>
+        <item h="1" x="375"/>
+        <item h="1" x="376"/>
+        <item h="1" x="377"/>
+        <item h="1" x="378"/>
+        <item h="1" x="379"/>
+        <item h="1" x="380"/>
+        <item h="1" x="381"/>
+        <item h="1" x="382"/>
+        <item h="1" x="383"/>
+        <item h="1" x="384"/>
+        <item h="1" x="385"/>
+        <item h="1" x="386"/>
+        <item h="1" x="387"/>
+        <item h="1" x="388"/>
+        <item h="1" x="389"/>
+        <item h="1" x="390"/>
+        <item h="1" x="391"/>
+        <item h="1" x="392"/>
+        <item h="1" x="393"/>
+        <item h="1" x="394"/>
+        <item h="1" x="395"/>
+        <item h="1" x="396"/>
+        <item h="1" x="397"/>
+        <item h="1" x="398"/>
+        <item h="1" x="399"/>
+        <item h="1" x="400"/>
+        <item h="1" x="401"/>
+        <item h="1" x="402"/>
+        <item h="1" x="403"/>
+        <item h="1" x="404"/>
+        <item h="1" x="405"/>
+        <item h="1" x="406"/>
+        <item h="1" x="407"/>
+        <item h="1" x="408"/>
+        <item h="1" x="409"/>
+        <item h="1" x="410"/>
+        <item h="1" x="411"/>
+        <item h="1" x="412"/>
+        <item h="1" x="413"/>
+        <item h="1" x="414"/>
+        <item h="1" x="415"/>
+        <item h="1" x="416"/>
+        <item h="1" x="417"/>
+        <item h="1" x="418"/>
+        <item h="1" x="419"/>
+        <item h="1" x="420"/>
+        <item h="1" x="421"/>
+        <item h="1" x="422"/>
+        <item h="1" x="423"/>
+        <item h="1" x="424"/>
+        <item h="1" x="425"/>
+        <item h="1" x="426"/>
+        <item h="1" x="427"/>
+        <item h="1" x="428"/>
+        <item h="1" x="429"/>
+        <item h="1" x="430"/>
+        <item h="1" x="431"/>
+        <item h="1" x="432"/>
+        <item h="1" x="433"/>
+        <item h="1" x="434"/>
+        <item h="1" x="435"/>
+        <item h="1" x="436"/>
+        <item h="1" x="437"/>
+        <item h="1" x="438"/>
+        <item h="1" x="439"/>
+        <item h="1" x="440"/>
+        <item h="1" x="441"/>
+        <item h="1" x="442"/>
+        <item h="1" x="443"/>
+        <item h="1" x="444"/>
+        <item h="1" x="445"/>
+        <item h="1" x="446"/>
+        <item h="1" x="447"/>
+        <item h="1" x="448"/>
+        <item h="1" x="449"/>
+        <item h="1" x="450"/>
+        <item h="1" x="451"/>
+        <item h="1" x="452"/>
+        <item h="1" x="453"/>
+        <item h="1" x="454"/>
+        <item h="1" x="455"/>
+        <item h="1" x="456"/>
+        <item h="1" x="457"/>
+        <item h="1" x="458"/>
+        <item h="1" x="459"/>
+        <item h="1" x="460"/>
+        <item h="1" x="461"/>
+        <item h="1" x="462"/>
+        <item h="1" x="463"/>
+        <item h="1" x="464"/>
+        <item h="1" x="465"/>
+        <item x="466"/>
+        <item h="1" x="467"/>
+        <item h="1" x="468"/>
+        <item h="1" x="469"/>
+        <item h="1" x="470"/>
+        <item h="1" x="471"/>
+        <item h="1" x="472"/>
+        <item h="1" x="473"/>
+        <item h="1" x="474"/>
+        <item h="1" x="475"/>
+        <item h="1" x="476"/>
+        <item h="1" x="477"/>
+        <item h="1" x="478"/>
+        <item h="1" x="479"/>
+        <item h="1" x="480"/>
+        <item h="1" x="481"/>
+        <item h="1" x="482"/>
+        <item h="1" x="483"/>
+        <item h="1" x="484"/>
+        <item h="1" x="485"/>
+        <item h="1" x="486"/>
+        <item h="1" x="487"/>
+        <item h="1" x="488"/>
+        <item h="1" x="489"/>
+        <item h="1" x="490"/>
+        <item h="1" x="491"/>
+        <item h="1" x="492"/>
+        <item h="1" x="493"/>
+        <item h="1" x="494"/>
+        <item h="1" x="495"/>
+        <item h="1" x="496"/>
+        <item h="1" x="497"/>
+        <item h="1" x="498"/>
+        <item h="1" x="499"/>
+        <item h="1" x="500"/>
+        <item h="1" x="501"/>
+        <item h="1" x="502"/>
+        <item h="1" x="503"/>
+        <item h="1" x="504"/>
+        <item h="1" x="505"/>
+        <item h="1" x="506"/>
+        <item h="1" x="507"/>
+        <item h="1" x="508"/>
+        <item h="1" x="509"/>
+        <item h="1" x="510"/>
+        <item h="1" x="511"/>
+        <item h="1" x="512"/>
+        <item h="1" x="513"/>
+        <item h="1" x="514"/>
+        <item h="1" x="515"/>
+        <item h="1" x="516"/>
+        <item h="1" x="517"/>
+        <item h="1" x="518"/>
+        <item h="1" x="519"/>
+        <item h="1" x="520"/>
+        <item h="1" x="521"/>
+        <item h="1" x="522"/>
+        <item h="1" x="523"/>
+        <item h="1" x="524"/>
+        <item h="1" x="525"/>
+        <item h="1" x="526"/>
+        <item h="1" x="527"/>
+        <item h="1" x="528"/>
+        <item h="1" x="529"/>
+        <item h="1" x="530"/>
+        <item h="1" x="531"/>
+        <item h="1" x="532"/>
+        <item h="1" x="533"/>
+        <item h="1" x="534"/>
+        <item h="1" x="535"/>
+        <item h="1" x="536"/>
+        <item h="1" x="537"/>
+        <item h="1" x="538"/>
+        <item h="1" x="539"/>
+        <item h="1" x="540"/>
+        <item h="1" x="541"/>
+        <item h="1" x="542"/>
+        <item h="1" x="543"/>
+        <item h="1" x="544"/>
+        <item h="1" x="545"/>
+        <item h="1" x="546"/>
+        <item h="1" x="547"/>
+        <item h="1" x="548"/>
+        <item h="1" x="549"/>
+        <item h="1" x="550"/>
+        <item h="1" x="551"/>
+        <item h="1" x="552"/>
+        <item h="1" x="553"/>
+        <item h="1" x="554"/>
+        <item h="1" x="555"/>
+        <item h="1" x="556"/>
+        <item h="1" x="557"/>
+        <item h="1" x="558"/>
+        <item h="1" x="559"/>
+        <item h="1" x="560"/>
+        <item h="1" x="561"/>
+        <item h="1" x="562"/>
+        <item h="1" x="563"/>
+        <item h="1" x="564"/>
+        <item h="1" x="565"/>
+        <item h="1" x="566"/>
+        <item h="1" x="567"/>
+        <item h="1" x="568"/>
+        <item h="1" x="569"/>
+        <item h="1" x="570"/>
+        <item h="1" x="571"/>
+        <item h="1" x="572"/>
+        <item h="1" x="573"/>
+        <item h="1" x="574"/>
+        <item h="1" x="575"/>
+        <item h="1" x="576"/>
+        <item h="1" x="577"/>
+        <item h="1" x="578"/>
+        <item h="1" x="579"/>
+        <item h="1" x="580"/>
+        <item h="1" x="581"/>
+        <item h="1" x="582"/>
+        <item h="1" x="583"/>
+        <item h="1" x="584"/>
+        <item h="1" x="585"/>
+        <item h="1" x="586"/>
+        <item h="1" x="587"/>
+        <item h="1" x="588"/>
+        <item h="1" x="589"/>
+        <item h="1" x="590"/>
+        <item h="1" x="591"/>
+        <item h="1" x="592"/>
+        <item h="1" x="593"/>
+        <item h="1" x="594"/>
+        <item h="1" x="595"/>
+        <item h="1" x="596"/>
+        <item h="1" x="597"/>
+        <item h="1" x="598"/>
+        <item h="1" x="599"/>
+        <item h="1" x="600"/>
+        <item h="1" x="601"/>
+        <item h="1" x="602"/>
+        <item h="1" x="603"/>
+        <item h="1" x="604"/>
+        <item h="1" x="605"/>
+        <item h="1" x="606"/>
+        <item h="1" x="607"/>
+        <item h="1" x="608"/>
+        <item h="1" x="609"/>
+        <item h="1" x="610"/>
+        <item h="1" x="611"/>
+        <item h="1" x="612"/>
+        <item h="1" x="613"/>
+        <item h="1" x="614"/>
+        <item h="1" x="615"/>
+        <item h="1" x="616"/>
+        <item h="1" x="617"/>
+        <item h="1" x="618"/>
+        <item h="1" x="619"/>
+        <item h="1" x="620"/>
+        <item h="1" x="621"/>
+        <item h="1" x="622"/>
+        <item h="1" x="623"/>
+        <item h="1" x="624"/>
+        <item h="1" x="625"/>
+        <item h="1" x="626"/>
+        <item h="1" x="627"/>
+        <item h="1" x="628"/>
+        <item h="1" x="629"/>
+        <item h="1" x="630"/>
+        <item h="1" x="631"/>
+        <item h="1" x="632"/>
+        <item h="1" x="633"/>
+        <item h="1" x="634"/>
+        <item h="1" x="635"/>
+        <item h="1" x="636"/>
+        <item h="1" x="637"/>
+        <item h="1" x="638"/>
+        <item h="1" x="639"/>
+        <item h="1" x="640"/>
+        <item h="1" x="641"/>
+        <item h="1" x="642"/>
+        <item h="1" x="643"/>
+        <item h="1" x="644"/>
+        <item h="1" x="645"/>
+        <item h="1" x="646"/>
+        <item h="1" x="647"/>
+        <item h="1" x="648"/>
+        <item x="649"/>
+        <item h="1" x="650"/>
+        <item h="1" x="651"/>
+        <item h="1" x="652"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="466"/>
+    </i>
+    <i>
+      <x v="649"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2311,7 +5658,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,57 +5670,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>238</v>
+      <c r="A3" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>583</v>
+      <c r="A4" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>137</v>
+      <c r="A5" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>562</v>
+      <c r="A6" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>441</v>
+      <c r="A7" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>448</v>
+      <c r="A8" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>595</v>
+      <c r="A9" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>404</v>
+      <c r="A10" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>331</v>
+      <c r="A11" s="2" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>650</v>
+      <c r="A12" s="2" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2395,90 +5742,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A477FB-C83C-43C2-86B9-1AF096004820}">
-  <dimension ref="A1:A654"/>
+  <dimension ref="A1:I654"/>
   <sheetViews>
-    <sheetView topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="I5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="I6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5675,5 +9073,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/input/team1.xlsx
+++ b/input/team1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishnu Kumar\Documents\IPL\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02928228-256F-40CA-8180-ECDF42342DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E63D2-7935-41A3-95F3-7C1351FD48AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="658">
   <si>
     <t>key</t>
   </si>
@@ -2002,7 +2002,7 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sikandar Raza</t>
+    <t>Kyle Mayers</t>
   </si>
 </sst>
 </file>
@@ -4699,7 +4699,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD0B9F24-F6A6-443E-B798-DFA3201660F2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G2:G6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G2:G5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
       <items count="654">
@@ -4863,7 +4863,7 @@
         <item h="1" x="157"/>
         <item h="1" x="158"/>
         <item h="1" x="159"/>
-        <item x="160"/>
+        <item h="1" x="160"/>
         <item h="1" x="161"/>
         <item h="1" x="162"/>
         <item h="1" x="163"/>
@@ -4942,7 +4942,7 @@
         <item h="1" x="236"/>
         <item h="1" x="237"/>
         <item h="1" x="238"/>
-        <item h="1" x="239"/>
+        <item x="239"/>
         <item h="1" x="240"/>
         <item h="1" x="241"/>
         <item h="1" x="242"/>
@@ -5169,7 +5169,7 @@
         <item h="1" x="463"/>
         <item h="1" x="464"/>
         <item h="1" x="465"/>
-        <item x="466"/>
+        <item h="1" x="466"/>
         <item h="1" x="467"/>
         <item h="1" x="468"/>
         <item h="1" x="469"/>
@@ -5341,7 +5341,7 @@
         <item h="1" x="635"/>
         <item h="1" x="636"/>
         <item h="1" x="637"/>
-        <item h="1" x="638"/>
+        <item x="638"/>
         <item h="1" x="639"/>
         <item h="1" x="640"/>
         <item h="1" x="641"/>
@@ -5352,7 +5352,7 @@
         <item h="1" x="646"/>
         <item h="1" x="647"/>
         <item h="1" x="648"/>
-        <item x="649"/>
+        <item h="1" x="649"/>
         <item h="1" x="650"/>
         <item h="1" x="651"/>
         <item h="1" x="652"/>
@@ -5363,15 +5363,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
-      <x v="160"/>
+      <x v="239"/>
     </i>
     <i>
-      <x v="466"/>
-    </i>
-    <i>
-      <x v="649"/>
+      <x v="638"/>
     </i>
     <i t="grand">
       <x/>
@@ -5658,7 +5655,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5670,57 +5667,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>423</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>253</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>555</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>657</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>467</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5750,7 +5747,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5771,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" t="s">
-        <v>502</v>
+        <v>240</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -5782,10 +5779,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I4" t="s">
-        <v>417</v>
+        <v>639</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5793,29 +5790,26 @@
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="I5" t="s">
-        <v>423</v>
+        <v>656</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>333</v>
+      <c r="I7" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5823,47 +5817,47 @@
         <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>555</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>657</v>
+      <c r="I9" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
-        <v>206</v>
+      <c r="I10" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>71</v>
+      <c r="I11" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
-        <v>400</v>
+      <c r="I12" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>467</v>
+      <c r="I13" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
